--- a/src/main/java/com/qa/api/gorest/testdata/GiRest_TestData.xlsx
+++ b/src/main/java/com/qa/api/gorest/testdata/GiRest_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{28BEB814-35A1-4FA7-8244-689E4956AB4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B1A8A18F-19F4-4076-BCCA-D212F8243145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="23280" windowHeight="13224" xr2:uid="{198A275D-32A8-441A-AB55-349EFC5B0532}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="23304" windowHeight="13224" xr2:uid="{198A275D-32A8-441A-AB55-349EFC5B0532}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateUser" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t>Tanishq</t>
   </si>
   <si>
-    <t>pol@gmail.com</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -50,25 +47,28 @@
     <t>Sharvi</t>
   </si>
   <si>
-    <t>gurav@gmail.com</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
     <t>Anu</t>
   </si>
   <si>
-    <t>anu@gmail.com</t>
-  </si>
-  <si>
     <t>Inactive</t>
   </si>
   <si>
     <t>Golu</t>
   </si>
   <si>
-    <t>golu@gmail.com</t>
+    <t>pol1@gmail.com</t>
+  </si>
+  <si>
+    <t>gurav1@gmail.com</t>
+  </si>
+  <si>
+    <t>anu1@gmail.com</t>
+  </si>
+  <si>
+    <t>golu1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,55 +492,55 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/qa/api/gorest/testdata/GiRest_TestData.xlsx
+++ b/src/main/java/com/qa/api/gorest/testdata/GiRest_TestData.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B1A8A18F-19F4-4076-BCCA-D212F8243145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A3810669-6C4B-47A1-BAD7-F9C4D61B523F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="23304" windowHeight="13224" xr2:uid="{198A275D-32A8-441A-AB55-349EFC5B0532}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="23304" windowHeight="13224" xr2:uid="{198A275D-32A8-441A-AB55-349EFC5B0532}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateUser" sheetId="1" r:id="rId1"/>
+    <sheet name="UpdateUser" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:P24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -38,6 +39,9 @@
     <t>Tanishq</t>
   </si>
   <si>
+    <t>pol@gmail.com</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
@@ -47,28 +51,49 @@
     <t>Sharvi</t>
   </si>
   <si>
+    <t>gurav@gmail.com</t>
+  </si>
+  <si>
     <t>Female</t>
   </si>
   <si>
     <t>Anu</t>
   </si>
   <si>
+    <t>anu@gmail.com</t>
+  </si>
+  <si>
     <t>Inactive</t>
   </si>
   <si>
     <t>Golu</t>
   </si>
   <si>
-    <t>pol1@gmail.com</t>
-  </si>
-  <si>
-    <t>gurav1@gmail.com</t>
-  </si>
-  <si>
-    <t>anu1@gmail.com</t>
-  </si>
-  <si>
-    <t>golu1@gmail.com</t>
+    <t>golu@gmail.com</t>
+  </si>
+  <si>
+    <t>Tanishq Pol</t>
+  </si>
+  <si>
+    <t>Sharvi Gurav</t>
+  </si>
+  <si>
+    <t>Anu Wani</t>
+  </si>
+  <si>
+    <t>Golu Molu</t>
+  </si>
+  <si>
+    <t>t.pol@gmail.com</t>
+  </si>
+  <si>
+    <t>s.gurav@gmail.com</t>
+  </si>
+  <si>
+    <t>a.wani@gmail.com</t>
+  </si>
+  <si>
+    <t>g.molu@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -464,9 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3049458-41A8-443A-A995-B5B4A98EF4BB}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -492,55 +515,55 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -553,4 +576,97 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6B1DB0-1884-4090-9B14-2FF90450A77F}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3B72A7CD-7AAA-4BAF-980F-325C04DB957C}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{24CC0D1E-1BBE-4812-9E56-20114798802B}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{C2C2DFE5-AD78-40AA-BAF5-E6907AB62FC0}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{500F6549-84D2-4FAE-889A-39A3ED0D5EBA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/com/qa/api/gorest/testdata/GiRest_TestData.xlsx
+++ b/src/main/java/com/qa/api/gorest/testdata/GiRest_TestData.xlsx
@@ -3,16 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A3810669-6C4B-47A1-BAD7-F9C4D61B523F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cf297a1bdc2f72c6/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{A015A3A9-74AC-4CB2-BA98-521A352B61E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{759B5EF1-0943-4F26-8F1B-E20D55354D48}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="23304" windowHeight="13224" xr2:uid="{198A275D-32A8-441A-AB55-349EFC5B0532}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{198A275D-32A8-441A-AB55-349EFC5B0532}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateUser" sheetId="1" r:id="rId1"/>
     <sheet name="UpdateUser" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:P24"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,42 +40,18 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Tanishq</t>
-  </si>
-  <si>
-    <t>pol@gmail.com</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
     <t>Active</t>
   </si>
   <si>
-    <t>Sharvi</t>
-  </si>
-  <si>
-    <t>gurav@gmail.com</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
-    <t>Anu</t>
-  </si>
-  <si>
-    <t>anu@gmail.com</t>
-  </si>
-  <si>
     <t>Inactive</t>
   </si>
   <si>
-    <t>Golu</t>
-  </si>
-  <si>
-    <t>golu@gmail.com</t>
-  </si>
-  <si>
     <t>Tanishq Pol</t>
   </si>
   <si>
@@ -94,6 +74,30 @@
   </si>
   <si>
     <t>g.molu@gmail.com</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>sha</t>
+  </si>
+  <si>
+    <t>minu</t>
+  </si>
+  <si>
+    <t>chinu</t>
+  </si>
+  <si>
+    <t>tan@gmail.com</t>
+  </si>
+  <si>
+    <t>sha@gmail.com</t>
+  </si>
+  <si>
+    <t>minu@gmail.com</t>
+  </si>
+  <si>
+    <t>chinu@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -512,66 +516,66 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{39905C04-356B-452B-A79C-E96B70C5CC7D}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{93998397-5085-482A-B2A5-7577FA90A5D2}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{BD80C6C3-EF86-4F64-B179-8F341308810B}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{35D4F822-D5DD-492A-A361-2D570F848830}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{BD80C6C3-EF86-4F64-B179-8F341308810B}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{C25F2898-592F-44CE-8422-3D175944366E}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{734C6470-59AE-42DA-A1AA-05733DDF94D3}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{3294134F-9199-41CD-8E29-B0B19BCBA9AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -606,58 +610,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/qa/api/gorest/testdata/GiRest_TestData.xlsx
+++ b/src/main/java/com/qa/api/gorest/testdata/GiRest_TestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cf297a1bdc2f72c6/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{A015A3A9-74AC-4CB2-BA98-521A352B61E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{759B5EF1-0943-4F26-8F1B-E20D55354D48}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{A015A3A9-74AC-4CB2-BA98-521A352B61E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D002134D-9315-49A1-8728-196D467F13C4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{198A275D-32A8-441A-AB55-349EFC5B0532}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{198A275D-32A8-441A-AB55-349EFC5B0532}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateUser" sheetId="1" r:id="rId1"/>
     <sheet name="UpdateUser" sheetId="2" r:id="rId2"/>
+    <sheet name="DeleteUser" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -64,40 +65,52 @@
     <t>Golu Molu</t>
   </si>
   <si>
-    <t>t.pol@gmail.com</t>
-  </si>
-  <si>
-    <t>s.gurav@gmail.com</t>
-  </si>
-  <si>
-    <t>a.wani@gmail.com</t>
-  </si>
-  <si>
-    <t>g.molu@gmail.com</t>
-  </si>
-  <si>
-    <t>tan</t>
-  </si>
-  <si>
-    <t>sha</t>
-  </si>
-  <si>
-    <t>minu</t>
-  </si>
-  <si>
-    <t>chinu</t>
-  </si>
-  <si>
-    <t>tan@gmail.com</t>
-  </si>
-  <si>
-    <t>sha@gmail.com</t>
-  </si>
-  <si>
-    <t>minu@gmail.com</t>
-  </si>
-  <si>
-    <t>chinu@gmail.com</t>
+    <t>Tanisha</t>
+  </si>
+  <si>
+    <t>Shanvi</t>
+  </si>
+  <si>
+    <t>Mitu</t>
+  </si>
+  <si>
+    <t>Linu</t>
+  </si>
+  <si>
+    <t>tanisha1@gmail.com</t>
+  </si>
+  <si>
+    <t>shanvi1@gmail.com</t>
+  </si>
+  <si>
+    <t>Mitu1@gmail.com</t>
+  </si>
+  <si>
+    <t>liinu1@gmail.com</t>
+  </si>
+  <si>
+    <t>t.pol1@gmail.com</t>
+  </si>
+  <si>
+    <t>s.gurav1@gmail.com</t>
+  </si>
+  <si>
+    <t>a.wani1@gmail.com</t>
+  </si>
+  <si>
+    <t>g.molu1@gmail.com</t>
+  </si>
+  <si>
+    <t>tttt.pol@gmail.com</t>
+  </si>
+  <si>
+    <t>sss.gurav@gmail.com</t>
+  </si>
+  <si>
+    <t>aaa.wani@gmail.com</t>
+  </si>
+  <si>
+    <t>ggg.molu@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -493,7 +506,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3049458-41A8-443A-A995-B5B4A98EF4BB}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -516,10 +531,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -530,10 +545,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -544,10 +559,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -558,10 +573,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -586,7 +601,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6B1DB0-1884-4090-9B14-2FF90450A77F}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -613,7 +630,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -627,7 +644,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -641,7 +658,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -655,7 +672,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -673,4 +690,95 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773DB662-9C5A-4E93-8BD4-E43BA9ECD111}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{EDAAA346-F164-463B-B1CE-DCA5D3E03109}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{EA634CE4-BE50-4712-ABF7-1D548F5CF96B}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{2B350B86-2C4D-4493-80FC-BE01343C944D}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{A7A03389-086F-4427-9C9D-C697122DB8E8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>